--- a/docs/ST3a/ST3a_24.07.24_output.xlsx
+++ b/docs/ST3a/ST3a_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,181 +505,215 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731319029.2235117</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731319030.8857079</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319029.2235117.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731319030.8857079.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>295.81</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>295.72</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.08999999999997499</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731319031.1795313</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731319031.1795313.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731319031.1795313.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>295.8</v>
       </c>
-      <c r="J4" t="n">
-        <v>295.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="L4" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731319043.2000864</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731319045.0324934</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319043.2000864.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319045.0324934.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6971</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6971</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -672,810 +721,972 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731319045.047425</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731319051.8366194</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319045.047425.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731319051.8366194.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>6971</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6961</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731319058.4813194</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731319060.7904902</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319058.4813194.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731319060.7904902.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>536.45</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>536.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.3000000000000682</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731319064.9738297</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731319065.8437655</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319064.9738297.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731319065.8437655.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1094.8</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1100.4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>5.600000000000136</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731319085.4823854</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731319085.4823854.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731319085.4823854.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>168.7</v>
       </c>
-      <c r="J9" t="n">
-        <v>168.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="L9" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-3.04000000000002</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731319105.4200017</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731319114.0263183</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319105.4200017.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731319114.0263183.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1465</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1464.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731319123.290109</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731319123.290109.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731319123.290109.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="J11" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1499999999999915</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731319131.4933646</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731319131.4933646.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731319131.4933646.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>59.13</v>
       </c>
-      <c r="J12" t="n">
-        <v>59.13</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>59.21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731319138.912262</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731319138.912262.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731319138.912262.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>145.92</v>
       </c>
-      <c r="J13" t="n">
-        <v>145.92</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731319144.5411944</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731319144.5411944.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731319144.5411944.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>90.2</v>
       </c>
-      <c r="J14" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.100000000000009</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731319155.1442122</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731319155.9452167</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319155.1442122.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319155.9452167.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>362.33</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>361.49</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.839999999999975</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731319157.8734558</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731319162.620413</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319157.8734558.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731319162.620413.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>361.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>371.03</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>9.42999999999995</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731319163.9705348</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731319163.9705348.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731319163.9705348.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>0.09908</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.09908</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>0.10026</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.00118</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-1.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731319174.1207836</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731319181.5862415</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319174.1207836.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731319181.5862415.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>3115.65</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>3122.75</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-7.099999999999909</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731319181.6002038</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731319181.6002038.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731319181.6002038.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>3122.75</v>
       </c>
-      <c r="J19" t="n">
-        <v>3122.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10.19999999999982</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731319184.8443308</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731319184.8443308.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731319184.8443308.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>38.38</v>
       </c>
-      <c r="J20" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>37.995</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3850000000000051</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731319195.3322127</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731319196.7439995</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319195.3322127.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319196.7439995.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>663.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>663</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731319197.7072608</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731319200.6245492</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319197.7072608.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/TATN1731319200.6245492.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>662.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>665.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3.100000000000023</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731319203.8765893</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731319203.8765893.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731319203.8765893.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ST3</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>666.4</v>
       </c>
-      <c r="J23" t="n">
-        <v>666.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>665.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1.199999999999932</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,6 +1724,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1521,11 +1747,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.600000000000023</v>
+        <v>2.400000000000091</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.8000000000000304</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3700000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1539,6 +1774,15 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>5.134999999999962</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1552,6 +1796,15 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1560,11 +1813,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7.099999999999909</v>
+        <v>3.099999999999909</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.549999999999955</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1573,11 +1835,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08999999999997499</v>
+        <v>0.7899999999999636</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.3949999999999818</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1586,11 +1857,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-1.100000000000009</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>-1.100000000000009</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1599,11 +1879,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.1499999999999915</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.1499999999999915</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1617,6 +1906,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1625,11 +1923,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.00118</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.00118</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.19</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1638,11 +1945,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-3.04000000000002</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>-3.04000000000002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1656,6 +1972,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>5.600000000000136</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1669,6 +1994,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.3000000000000682</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1677,11 +2011,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.3850000000000051</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.3850000000000051</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1690,11 +2033,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.07999999999999829</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1703,11 +2055,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.1800000000000068</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1721,6 +2082,11 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
